--- a/data/trans_orig/P16A12-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A12-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>43269</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32517</v>
+        <v>32065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57541</v>
+        <v>56195</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07407225218820873</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05566593904039801</v>
+        <v>0.05489269557011078</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09850498325551856</v>
+        <v>0.09620165517072862</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -765,19 +765,19 @@
         <v>76246</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60159</v>
+        <v>59294</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92565</v>
+        <v>93658</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08266663291065179</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06522459497399269</v>
+        <v>0.06428645667469178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1003601685560429</v>
+        <v>0.1015443660579111</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -786,19 +786,19 @@
         <v>119515</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101724</v>
+        <v>99398</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144770</v>
+        <v>141164</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07933412810287695</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06752461133867148</v>
+        <v>0.06598062333629647</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09609835349962847</v>
+        <v>0.09370478780948044</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>540872</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>526600</v>
+        <v>527946</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>551624</v>
+        <v>552076</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9259277478117912</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9014950167444812</v>
+        <v>0.9037983448292717</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9443340609596019</v>
+        <v>0.9451073044298892</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>811</v>
@@ -836,19 +836,19 @@
         <v>846087</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>829768</v>
+        <v>828675</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>862174</v>
+        <v>863039</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9173333670893482</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8996398314439571</v>
+        <v>0.8984556339420889</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9347754050260073</v>
+        <v>0.9357135433253083</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1339</v>
@@ -857,19 +857,19 @@
         <v>1386959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1361704</v>
+        <v>1365310</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1404750</v>
+        <v>1407076</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.920665871897123</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9039016465003717</v>
+        <v>0.9062952121905196</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9324753886613286</v>
+        <v>0.9340193766637036</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>65073</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51524</v>
+        <v>51939</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81987</v>
+        <v>81788</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06037013340488374</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04780094133122756</v>
+        <v>0.04818533252731658</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07606235663305826</v>
+        <v>0.07587764995462655</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -982,19 +982,19 @@
         <v>58926</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45388</v>
+        <v>45048</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76804</v>
+        <v>74686</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0557196048607207</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04291817944304575</v>
+        <v>0.04259700456616414</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0726248807159504</v>
+        <v>0.07062215537908821</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>125</v>
@@ -1003,19 +1003,19 @@
         <v>123998</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103385</v>
+        <v>103098</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>145672</v>
+        <v>146728</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05806703474011686</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04841417295531077</v>
+        <v>0.04827977816399394</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06821648888558078</v>
+        <v>0.06871137253024907</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1012821</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>995907</v>
+        <v>996106</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1026370</v>
+        <v>1025955</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9396298665951163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9239376433669417</v>
+        <v>0.9241223500453734</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9521990586687724</v>
+        <v>0.9518146674726834</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>971</v>
@@ -1053,19 +1053,19 @@
         <v>998612</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>980734</v>
+        <v>982852</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1012150</v>
+        <v>1012490</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9442803951392793</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9273751192840496</v>
+        <v>0.9293778446209116</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9570818205569542</v>
+        <v>0.9574029954338357</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1958</v>
@@ -1074,19 +1074,19 @@
         <v>2011434</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1989760</v>
+        <v>1988704</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2032047</v>
+        <v>2032334</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9419329652598831</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9317835111144193</v>
+        <v>0.9312886274697511</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9515858270446893</v>
+        <v>0.951720221836006</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>45425</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33564</v>
+        <v>35174</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61042</v>
+        <v>59751</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04053684169983684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02995203408948626</v>
+        <v>0.03138944970345733</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05447338823621733</v>
+        <v>0.05332154095141545</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1199,19 +1199,19 @@
         <v>51696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38230</v>
+        <v>38585</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68427</v>
+        <v>66309</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05201115465871771</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0384626943270398</v>
+        <v>0.03881999822019996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06884429994536878</v>
+        <v>0.06671299333215663</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -1220,19 +1220,19 @@
         <v>97121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78679</v>
+        <v>77819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117502</v>
+        <v>118117</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04593040488214424</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03720916688312592</v>
+        <v>0.03680229336703286</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05556940986318797</v>
+        <v>0.05586029126951893</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1075151</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1059534</v>
+        <v>1060825</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1087012</v>
+        <v>1085402</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9594631583001632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9455266117637827</v>
+        <v>0.9466784590485845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9700479659105146</v>
+        <v>0.9686105502965425</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>931</v>
@@ -1270,19 +1270,19 @@
         <v>942244</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>925513</v>
+        <v>927631</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>955710</v>
+        <v>955355</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9479888453412822</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9311557000546314</v>
+        <v>0.9332870066678433</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9615373056729603</v>
+        <v>0.9611800017797996</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1986</v>
@@ -1291,19 +1291,19 @@
         <v>2017395</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1997014</v>
+        <v>1996399</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2035837</v>
+        <v>2036697</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9540695951178557</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9444305901368121</v>
+        <v>0.9441397087304813</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9627908331168741</v>
+        <v>0.9631977066329672</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>19719</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12438</v>
+        <v>12201</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29503</v>
+        <v>28998</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04409471697495743</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02781417342347505</v>
+        <v>0.02728262519879397</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06597284390202589</v>
+        <v>0.06484455187907143</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1416,19 +1416,19 @@
         <v>10478</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5286</v>
+        <v>5275</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18261</v>
+        <v>17723</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03071244397773021</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01549376401189633</v>
+        <v>0.01546153090472934</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05352569268740127</v>
+        <v>0.05194866293514985</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -1437,19 +1437,19 @@
         <v>30197</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20477</v>
+        <v>20676</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42500</v>
+        <v>42630</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03830360094644945</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0259742155606072</v>
+        <v>0.02622702302684385</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05390901532348263</v>
+        <v>0.05407452183952566</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>427481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>417697</v>
+        <v>418202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>434762</v>
+        <v>434999</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9559052830250425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9340271560979743</v>
+        <v>0.935155448120929</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9721858265765251</v>
+        <v>0.972717374801206</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>329</v>
@@ -1487,19 +1487,19 @@
         <v>330680</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>322897</v>
+        <v>323435</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>335872</v>
+        <v>335883</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9692875560222698</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9464743073125987</v>
+        <v>0.9480513370648501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9845062359881038</v>
+        <v>0.9845384690952707</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>744</v>
@@ -1508,19 +1508,19 @@
         <v>758161</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>745858</v>
+        <v>745728</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>767881</v>
+        <v>767682</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9616963990535505</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9460909846765172</v>
+        <v>0.9459254781604743</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9740257844393928</v>
+        <v>0.9737729769731561</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>173485</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150458</v>
+        <v>146995</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>198975</v>
+        <v>199068</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05371367596931503</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04658430457423435</v>
+        <v>0.04551205320629912</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06160587407788685</v>
+        <v>0.06163470018246037</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>192</v>
@@ -1633,19 +1633,19 @@
         <v>197346</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>170648</v>
+        <v>171180</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>225407</v>
+        <v>224004</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0595316362618962</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05147802687106769</v>
+        <v>0.05163858991054611</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06799660367596981</v>
+        <v>0.06757351254177249</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>374</v>
@@ -1654,19 +1654,19 @@
         <v>370831</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>333945</v>
+        <v>337085</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>408956</v>
+        <v>407715</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05666050644002077</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05102464540890241</v>
+        <v>0.05150435800074115</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06248576922497338</v>
+        <v>0.0622961484599287</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3056326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3030836</v>
+        <v>3030743</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3079353</v>
+        <v>3082816</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.946286324030685</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9383941259221132</v>
+        <v>0.9383652998175397</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9534156954257658</v>
+        <v>0.9544879467937009</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3042</v>
@@ -1704,19 +1704,19 @@
         <v>3117623</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3089562</v>
+        <v>3090965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3144321</v>
+        <v>3143789</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9404683637381038</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9320033963240302</v>
+        <v>0.9324264874582275</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9485219731289323</v>
+        <v>0.9483614100894538</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6027</v>
@@ -1725,19 +1725,19 @@
         <v>6173949</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6135824</v>
+        <v>6137065</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6210835</v>
+        <v>6207695</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9433394935599793</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9375142307750266</v>
+        <v>0.9377038515400713</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9489753545910976</v>
+        <v>0.9484956419992591</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>75502</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61022</v>
+        <v>58764</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>95242</v>
+        <v>94164</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07247181341550298</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05857315815433405</v>
+        <v>0.05640576590980566</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09142011928560832</v>
+        <v>0.09038547100417299</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>107</v>
@@ -2090,19 +2090,19 @@
         <v>111859</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>92630</v>
+        <v>94025</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>133365</v>
+        <v>133663</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1004376486725693</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08317193186060877</v>
+        <v>0.08442487030437813</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1197477865271707</v>
+        <v>0.1200150210770949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>177</v>
@@ -2111,19 +2111,19 @@
         <v>187361</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>163503</v>
+        <v>161758</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>215500</v>
+        <v>213862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08692119482400357</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07585315965732503</v>
+        <v>0.07504348009696425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09997576840596731</v>
+        <v>0.09921579302773836</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>966306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>946566</v>
+        <v>947644</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>980786</v>
+        <v>983044</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.927528186584497</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9085798807143917</v>
+        <v>0.9096145289958267</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9414268418456658</v>
+        <v>0.9435942340901943</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>919</v>
@@ -2161,19 +2161,19 @@
         <v>1001857</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>980351</v>
+        <v>980053</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1021086</v>
+        <v>1019691</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8995623513274307</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8802522134728293</v>
+        <v>0.8799849789229053</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9168280681393912</v>
+        <v>0.9155751296956219</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1825</v>
@@ -2182,19 +2182,19 @@
         <v>1968163</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1940024</v>
+        <v>1941662</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1992021</v>
+        <v>1993766</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9130788051759965</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9000242315940327</v>
+        <v>0.9007842069722616</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9241468403426748</v>
+        <v>0.9249565199030356</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>64517</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49714</v>
+        <v>48666</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83507</v>
+        <v>82711</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06620348294156364</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05101331815071715</v>
+        <v>0.0499376894906864</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08568933778578053</v>
+        <v>0.08487256730479013</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>95</v>
@@ -2307,19 +2307,19 @@
         <v>102647</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85219</v>
+        <v>84074</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>122425</v>
+        <v>122609</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09398341082138764</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07802711702516232</v>
+        <v>0.07697799978898998</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1120923529548766</v>
+        <v>0.1122612313757472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>152</v>
@@ -2328,19 +2328,19 @@
         <v>167164</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>143232</v>
+        <v>140704</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>195923</v>
+        <v>195544</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08088413616895195</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06930459656540761</v>
+        <v>0.0680810671412793</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09479984089409482</v>
+        <v>0.09461602220261153</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>910012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>891022</v>
+        <v>891818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>924815</v>
+        <v>925863</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9337965170584364</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9143106622142194</v>
+        <v>0.9151274326952098</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9489866818492828</v>
+        <v>0.9500623105093136</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>923</v>
@@ -2378,19 +2378,19 @@
         <v>989530</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>969752</v>
+        <v>969568</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1006958</v>
+        <v>1008103</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9060165891786124</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8879076470451235</v>
+        <v>0.8877387686242528</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9219728829748377</v>
+        <v>0.92302200021101</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1787</v>
@@ -2399,19 +2399,19 @@
         <v>1899543</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1870784</v>
+        <v>1871163</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1923475</v>
+        <v>1926003</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.919115863831048</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9052001591059051</v>
+        <v>0.9053839777973884</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9306954034345923</v>
+        <v>0.9319189328587207</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>71850</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55781</v>
+        <v>55825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89760</v>
+        <v>89934</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08126132656743683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06308697055034461</v>
+        <v>0.06313697380650846</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1015167077898842</v>
+        <v>0.1017141680688027</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -2524,19 +2524,19 @@
         <v>58639</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46213</v>
+        <v>44439</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77144</v>
+        <v>73492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06703396502994108</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05282895546690844</v>
+        <v>0.05080080176730319</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08818839847476423</v>
+        <v>0.08401339863988161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -2545,19 +2545,19 @@
         <v>130489</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108060</v>
+        <v>110589</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153936</v>
+        <v>156076</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0741857577753882</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06143473452326069</v>
+        <v>0.06287249979266554</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08751615099790777</v>
+        <v>0.08873275319010486</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>812335</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>794425</v>
+        <v>794251</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>828404</v>
+        <v>828360</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9187386734325632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.898483292210116</v>
+        <v>0.8982858319311966</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9369130294496555</v>
+        <v>0.9368630261934914</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>765</v>
@@ -2595,19 +2595,19 @@
         <v>816123</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>797618</v>
+        <v>801270</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>828549</v>
+        <v>830323</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9329660349700589</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.911811601525236</v>
+        <v>0.9159866013601186</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9471710445330916</v>
+        <v>0.9491991982326968</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1528</v>
@@ -2616,19 +2616,19 @@
         <v>1628458</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1605011</v>
+        <v>1602871</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1650887</v>
+        <v>1648358</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9258142422246118</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9124838490020925</v>
+        <v>0.9112672468098955</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9385652654767395</v>
+        <v>0.9371275002073345</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>36225</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25368</v>
+        <v>24806</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50376</v>
+        <v>49430</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0720144007945247</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05043033713602845</v>
+        <v>0.04931300948003627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1001462158305207</v>
+        <v>0.09826518923237833</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -2741,19 +2741,19 @@
         <v>25733</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17712</v>
+        <v>16472</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37690</v>
+        <v>37264</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05707412252788212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03928391209554245</v>
+        <v>0.03653481520455996</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08359345125444261</v>
+        <v>0.08265029292641725</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -2762,19 +2762,19 @@
         <v>61958</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47346</v>
+        <v>48886</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79156</v>
+        <v>80111</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06495269532446239</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04963449407331886</v>
+        <v>0.05124925336509995</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0829823757668221</v>
+        <v>0.0839828828601473</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>466798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>452647</v>
+        <v>453593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>477655</v>
+        <v>478217</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9279855992054753</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8998537841694794</v>
+        <v>0.9017348107676219</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9495696628639715</v>
+        <v>0.9506869905199637</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>385</v>
@@ -2812,19 +2812,19 @@
         <v>425135</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>413178</v>
+        <v>413604</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>433156</v>
+        <v>434396</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9429258774721179</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9164065487455574</v>
+        <v>0.9173497070735829</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9607160879044575</v>
+        <v>0.9634651847954401</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>812</v>
@@ -2833,19 +2833,19 @@
         <v>891933</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>874735</v>
+        <v>873780</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>906545</v>
+        <v>905005</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9350473046755376</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9170176242331779</v>
+        <v>0.916017117139853</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9503655059266811</v>
+        <v>0.9487507466349003</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>248094</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>217455</v>
+        <v>220644</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>278448</v>
+        <v>281141</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07289278504253485</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06389062567333734</v>
+        <v>0.06482767520622096</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08181107326359008</v>
+        <v>0.08260229042090349</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>282</v>
@@ -2958,19 +2958,19 @@
         <v>298877</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>265041</v>
+        <v>268344</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>330919</v>
+        <v>335405</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08463124742660312</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0750502120627595</v>
+        <v>0.07598538268684722</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0937043542140264</v>
+        <v>0.09497455574555085</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>509</v>
@@ -2979,19 +2979,19 @@
         <v>546971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>500683</v>
+        <v>501131</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>594754</v>
+        <v>594953</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07887032462657725</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07219586629857269</v>
+        <v>0.07226041123839337</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08576037686610015</v>
+        <v>0.08578909540321231</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3155452</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3125098</v>
+        <v>3122405</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3186091</v>
+        <v>3182902</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9271072149574652</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9181889267364099</v>
+        <v>0.9173977095790967</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9361093743266629</v>
+        <v>0.9351723247937791</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2992</v>
@@ -3029,19 +3029,19 @@
         <v>3232645</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3200603</v>
+        <v>3196117</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3266481</v>
+        <v>3263178</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9153687525733969</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9062956457859738</v>
+        <v>0.9050254442544493</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9249497879372406</v>
+        <v>0.9240146173131529</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5952</v>
@@ -3050,19 +3050,19 @@
         <v>6388097</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6340314</v>
+        <v>6340115</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6434385</v>
+        <v>6433937</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9211296753734227</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9142396231338995</v>
+        <v>0.9142109045967874</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9278041337014272</v>
+        <v>0.9277395887616067</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>108644</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90640</v>
+        <v>90666</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130986</v>
+        <v>129743</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09631616361003202</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08035479664811453</v>
+        <v>0.08037797694336007</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1161229630782148</v>
+        <v>0.115020482306104</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -3415,19 +3415,19 @@
         <v>112418</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91291</v>
+        <v>93567</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>134104</v>
+        <v>138608</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08925144563671371</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07247851714222135</v>
+        <v>0.07428501340499824</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1064688794848975</v>
+        <v>0.1100445177092906</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>207</v>
@@ -3436,19 +3436,19 @@
         <v>221062</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>190157</v>
+        <v>193561</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>252149</v>
+        <v>251818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09258915818881999</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07964503953030301</v>
+        <v>0.08107072442855201</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1056097173415863</v>
+        <v>0.1054708230654466</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1019353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>997011</v>
+        <v>998254</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1037357</v>
+        <v>1037331</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.903683836389968</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8838770369217855</v>
+        <v>0.884979517693896</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9196452033518855</v>
+        <v>0.91962202305664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1088</v>
@@ -3486,19 +3486,19 @@
         <v>1147143</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1125457</v>
+        <v>1120953</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1168270</v>
+        <v>1165994</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9107485543632863</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8935311205151025</v>
+        <v>0.8899554822907094</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9275214828577788</v>
+        <v>0.9257149865950011</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2047</v>
@@ -3507,19 +3507,19 @@
         <v>2166496</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2135409</v>
+        <v>2135740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2197401</v>
+        <v>2193997</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.90741084181118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8943902826584136</v>
+        <v>0.8945291769345539</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9203549604696966</v>
+        <v>0.9189292755714481</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>78997</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63008</v>
+        <v>63399</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96099</v>
+        <v>98690</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08692184549916113</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06932909607951325</v>
+        <v>0.06975967321187689</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1057395566242786</v>
+        <v>0.1085911478745731</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -3632,19 +3632,19 @@
         <v>79437</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62925</v>
+        <v>62536</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98933</v>
+        <v>99465</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07892582082472561</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06251976929935282</v>
+        <v>0.06213351255250579</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09829688169902497</v>
+        <v>0.09882500762752365</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -3653,19 +3653,19 @@
         <v>158434</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>134589</v>
+        <v>136437</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>183175</v>
+        <v>185618</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08271999670847525</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07027056877999426</v>
+        <v>0.07123531996039413</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09563784957968222</v>
+        <v>0.09691338980247775</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>829828</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>812726</v>
+        <v>810135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>845817</v>
+        <v>845426</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9130781545008388</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8942604433757214</v>
+        <v>0.891408852125427</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9306709039204868</v>
+        <v>0.9302403267881232</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>883</v>
@@ -3703,19 +3703,19 @@
         <v>927038</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>907542</v>
+        <v>907010</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>943550</v>
+        <v>943939</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9210741791752743</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9017031183009755</v>
+        <v>0.9011749923724764</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9374802307006473</v>
+        <v>0.9378664874474942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1683</v>
@@ -3724,19 +3724,19 @@
         <v>1756866</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1732125</v>
+        <v>1729682</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1780711</v>
+        <v>1778863</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9172800032915247</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9043621504203175</v>
+        <v>0.9030866101975221</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9297294312200057</v>
+        <v>0.9287646800396049</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>53798</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41015</v>
+        <v>41449</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69761</v>
+        <v>68997</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0653078097391066</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04979035810548735</v>
+        <v>0.05031648425272364</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08468633628279584</v>
+        <v>0.08375908353497988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -3849,19 +3849,19 @@
         <v>60720</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46613</v>
+        <v>47045</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78383</v>
+        <v>78876</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07874855182502245</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06045315589395477</v>
+        <v>0.06101350752262759</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.101656646003855</v>
+        <v>0.1022951802176678</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -3870,19 +3870,19 @@
         <v>114518</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>95481</v>
+        <v>92642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138804</v>
+        <v>136509</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07180610681087939</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05986965361956166</v>
+        <v>0.05808933246663561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08703465179663764</v>
+        <v>0.08559505727283535</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>769961</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>753998</v>
+        <v>754762</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>782744</v>
+        <v>782310</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9346921902608935</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9153136637172041</v>
+        <v>0.91624091646502</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9502096418945126</v>
+        <v>0.9496835157472763</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>676</v>
@@ -3920,19 +3920,19 @@
         <v>710339</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>692676</v>
+        <v>692183</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>724446</v>
+        <v>724014</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9212514481749775</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8983433539961452</v>
+        <v>0.8977048197823322</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9395468441060453</v>
+        <v>0.9389864924773725</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1408</v>
@@ -3941,19 +3941,19 @@
         <v>1480300</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1456014</v>
+        <v>1458309</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1499337</v>
+        <v>1502176</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9281938931891206</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9129653482033624</v>
+        <v>0.9144049427271647</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9401303463804384</v>
+        <v>0.9419106675333644</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>37502</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27436</v>
+        <v>27569</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50357</v>
+        <v>50605</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07401113719109148</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05414727463719263</v>
+        <v>0.05440838947991822</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09938276665639138</v>
+        <v>0.09987163559987955</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -4066,19 +4066,19 @@
         <v>22783</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14365</v>
+        <v>13776</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35411</v>
+        <v>34692</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04652512076694326</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02933362187856005</v>
+        <v>0.0281311887047863</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07231187160333077</v>
+        <v>0.07084321734178929</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -4087,19 +4087,19 @@
         <v>60285</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45112</v>
+        <v>46400</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76319</v>
+        <v>77562</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06050265079076718</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04527510010316851</v>
+        <v>0.04656753718650624</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07659529110062317</v>
+        <v>0.07784216636850273</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>469199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>456344</v>
+        <v>456096</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>479265</v>
+        <v>479132</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9259888628089085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9006172333436089</v>
+        <v>0.9001283644001206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9458527253628075</v>
+        <v>0.945591610520082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>436</v>
@@ -4137,19 +4137,19 @@
         <v>466915</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>454287</v>
+        <v>455006</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>475333</v>
+        <v>475922</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9534748792330567</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9276881283966689</v>
+        <v>0.9291567826582107</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.97066637812144</v>
+        <v>0.9718688112952137</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>870</v>
@@ -4158,19 +4158,19 @@
         <v>936113</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>920079</v>
+        <v>918836</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>951286</v>
+        <v>949998</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9394973492092328</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9234047088993769</v>
+        <v>0.9221578336314973</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9547248998968316</v>
+        <v>0.9534324628134937</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>278940</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>250214</v>
+        <v>249965</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>312171</v>
+        <v>317488</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08283847312237411</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07430728353872121</v>
+        <v>0.07423342935372547</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09270719245538558</v>
+        <v>0.09428610194040421</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>239</v>
@@ -4283,19 +4283,19 @@
         <v>275357</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>242615</v>
+        <v>243041</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>310706</v>
+        <v>310252</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07807590508821391</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06879191477399187</v>
+        <v>0.0689127905266034</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08809876575131209</v>
+        <v>0.08797013106491797</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>519</v>
@@ -4304,19 +4304,19 @@
         <v>554298</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>510635</v>
+        <v>511441</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>603019</v>
+        <v>603527</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08040209268048785</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07406864422414126</v>
+        <v>0.07418556418757542</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08746915997856061</v>
+        <v>0.08754285101793635</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3088342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3055111</v>
+        <v>3049794</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3117068</v>
+        <v>3117317</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9171615268776259</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9072928075446149</v>
+        <v>0.9057138980595958</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9256927164612788</v>
+        <v>0.9257665706462745</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3083</v>
@@ -4354,19 +4354,19 @@
         <v>3251435</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3216086</v>
+        <v>3216540</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3284177</v>
+        <v>3283751</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9219240949117861</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9119012342486875</v>
+        <v>0.9120298689350818</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9312080852260081</v>
+        <v>0.9310872094733964</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6008</v>
@@ -4375,19 +4375,19 @@
         <v>6339777</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6291056</v>
+        <v>6290548</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6383440</v>
+        <v>6382634</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9195979073195122</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9125308400214394</v>
+        <v>0.9124571489820636</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9259313557758587</v>
+        <v>0.9258144358124246</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>44465</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33338</v>
+        <v>33083</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58289</v>
+        <v>57575</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08915539173934596</v>
+        <v>0.08915539173934597</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06684505237824853</v>
+        <v>0.06633248371029431</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1168717824869284</v>
+        <v>0.1154407539217784</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -4740,19 +4740,19 @@
         <v>65841</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55211</v>
+        <v>54986</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78732</v>
+        <v>80000</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.105585962565678</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08853908126737621</v>
+        <v>0.08817795625889761</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1262586722040332</v>
+        <v>0.1282909463759202</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>170</v>
@@ -4761,19 +4761,19 @@
         <v>110307</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94244</v>
+        <v>95302</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>128176</v>
+        <v>129195</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09828450228186561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08397226319595338</v>
+        <v>0.08491516297456313</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.114206441386878</v>
+        <v>0.1151144789924024</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>454274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>440450</v>
+        <v>441164</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>465401</v>
+        <v>465656</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9108446082606542</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8831282175130715</v>
+        <v>0.8845592460782216</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9331549476217513</v>
+        <v>0.9336675162897056</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>745</v>
@@ -4811,19 +4811,19 @@
         <v>557739</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>544848</v>
+        <v>543580</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>568369</v>
+        <v>568594</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8944140374343221</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.873741327795967</v>
+        <v>0.8717090536240798</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9114609187326239</v>
+        <v>0.9118220437411023</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1146</v>
@@ -4832,19 +4832,19 @@
         <v>1012013</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>994144</v>
+        <v>993125</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1028076</v>
+        <v>1027018</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9017154977181344</v>
+        <v>0.9017154977181343</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.885793558613122</v>
+        <v>0.8848855210075977</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9160277368040461</v>
+        <v>0.915084837025437</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>83857</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68633</v>
+        <v>70229</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100478</v>
+        <v>100373</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08733814790530217</v>
+        <v>0.08733814790530216</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07148200896946458</v>
+        <v>0.07314456270489594</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1046492991774863</v>
+        <v>0.1045400398031135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>182</v>
@@ -4957,19 +4957,19 @@
         <v>94832</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82464</v>
+        <v>82146</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109422</v>
+        <v>109008</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08503219030316325</v>
+        <v>0.08503219030316324</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07394249438442156</v>
+        <v>0.07365684518879811</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09811466343567618</v>
+        <v>0.09774339104364223</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>297</v>
@@ -4978,19 +4978,19 @@
         <v>178688</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>157363</v>
+        <v>159077</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>199830</v>
+        <v>200880</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08609899801482085</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07582366813621773</v>
+        <v>0.07664956498433029</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09628569651967919</v>
+        <v>0.09679161371243904</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>876280</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>859659</v>
+        <v>859764</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>891504</v>
+        <v>889908</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9126618520946979</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8953507008225137</v>
+        <v>0.8954599601968866</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9285179910305355</v>
+        <v>0.9268554372951042</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1424</v>
@@ -5028,19 +5028,19 @@
         <v>1020414</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1005824</v>
+        <v>1006238</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1032782</v>
+        <v>1033100</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9149678096968369</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9018853365643241</v>
+        <v>0.9022566089563577</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9260575056155784</v>
+        <v>0.9263431548112021</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2219</v>
@@ -5049,19 +5049,19 @@
         <v>1896695</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1875553</v>
+        <v>1874503</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1918020</v>
+        <v>1916306</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.913901001985179</v>
+        <v>0.9139010019851791</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9037143034803208</v>
+        <v>0.9032083862875608</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9241763318637822</v>
+        <v>0.9233504350156693</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>99020</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83979</v>
+        <v>83718</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>118021</v>
+        <v>118956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09462164052392051</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08024907781195675</v>
+        <v>0.08000003091673945</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1127795262052309</v>
+        <v>0.1136722927905608</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -5174,19 +5174,19 @@
         <v>61195</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50602</v>
+        <v>50915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73019</v>
+        <v>73483</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05841256720044927</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04830069965788298</v>
+        <v>0.04859927798281308</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06969810905089578</v>
+        <v>0.07014145246239439</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>248</v>
@@ -5195,19 +5195,19 @@
         <v>160215</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>139804</v>
+        <v>140676</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180644</v>
+        <v>182601</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07650705480544591</v>
+        <v>0.07650705480544594</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06676027099267613</v>
+        <v>0.0671768376209684</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08626259562926611</v>
+        <v>0.08719688944643116</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>947459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>928458</v>
+        <v>927523</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>962500</v>
+        <v>962761</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9053783594760796</v>
+        <v>0.9053783594760795</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8872204737947693</v>
+        <v>0.8863277072094393</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9197509221880434</v>
+        <v>0.9199999690832606</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1399</v>
@@ -5245,19 +5245,19 @@
         <v>986447</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>974623</v>
+        <v>974159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>997040</v>
+        <v>996727</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9415874327995507</v>
+        <v>0.9415874327995508</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9303018909491041</v>
+        <v>0.9298585475376054</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9516993003421169</v>
+        <v>0.9514007220171868</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2297</v>
@@ -5266,19 +5266,19 @@
         <v>1933906</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1913477</v>
+        <v>1911520</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1954317</v>
+        <v>1953445</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.923492945194554</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.913737404370734</v>
+        <v>0.9128031105535689</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9332397290073239</v>
+        <v>0.9328231623790315</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>75116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60563</v>
+        <v>61439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90469</v>
+        <v>90979</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07696909300859399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06205722830685878</v>
+        <v>0.06295395675995583</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09270013700310811</v>
+        <v>0.09322336715038275</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -5391,19 +5391,19 @@
         <v>51141</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40869</v>
+        <v>41568</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62079</v>
+        <v>63337</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05628283096930552</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04497813560500248</v>
+        <v>0.04574789797573781</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06832012159291609</v>
+        <v>0.06970464425909015</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>200</v>
@@ -5412,19 +5412,19 @@
         <v>126257</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106671</v>
+        <v>110170</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143479</v>
+        <v>145534</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06699525513733655</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05660219027252979</v>
+        <v>0.05845904739924898</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07613364008236195</v>
+        <v>0.07722387872203995</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>900813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>885460</v>
+        <v>884950</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>915366</v>
+        <v>914490</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.923030906991406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9072998629968919</v>
+        <v>0.9067766328496173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9379427716931413</v>
+        <v>0.9370460432400441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1222</v>
@@ -5462,19 +5462,19 @@
         <v>857501</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>846563</v>
+        <v>845305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>867773</v>
+        <v>867074</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9437171690306946</v>
+        <v>0.9437171690306945</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.931679878407084</v>
+        <v>0.9302953557409098</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9550218643949975</v>
+        <v>0.954252102024262</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2068</v>
@@ -5483,19 +5483,19 @@
         <v>1758314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1741092</v>
+        <v>1739037</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1777900</v>
+        <v>1774401</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9330047448626635</v>
+        <v>0.9330047448626634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.923866359917638</v>
+        <v>0.9227761212779599</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9433978097274706</v>
+        <v>0.941540952600751</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>302458</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>274912</v>
+        <v>274529</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>332786</v>
+        <v>338960</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08688110162160508</v>
+        <v>0.08688110162160509</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07896854045756518</v>
+        <v>0.07885861676329999</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09559285930629489</v>
+        <v>0.09736647783247696</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>514</v>
@@ -5608,19 +5608,19 @@
         <v>273010</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>249788</v>
+        <v>250093</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>295847</v>
+        <v>298026</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07388400476245614</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06759956213106359</v>
+        <v>0.06768202686747034</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08006454666002842</v>
+        <v>0.08065407133696757</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>915</v>
@@ -5629,19 +5629,19 @@
         <v>575467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>537228</v>
+        <v>539771</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>613220</v>
+        <v>614778</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.080188924361732</v>
+        <v>0.08018892436173197</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07486036909649381</v>
+        <v>0.07521483128454062</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08544957424032179</v>
+        <v>0.08566673053465886</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3178826</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3148498</v>
+        <v>3142324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3206372</v>
+        <v>3206755</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.913118898378395</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9044071406937051</v>
+        <v>0.9026335221675231</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.921031459542435</v>
+        <v>0.9211413832367</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4790</v>
@@ -5679,19 +5679,19 @@
         <v>3422100</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3399263</v>
+        <v>3397084</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3445322</v>
+        <v>3445017</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9261159952375438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9199354533399717</v>
+        <v>0.9193459286630326</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9324004378689368</v>
+        <v>0.9323179731325297</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7730</v>
@@ -5700,19 +5700,19 @@
         <v>6600928</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6563175</v>
+        <v>6561617</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6639167</v>
+        <v>6636624</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9198110756382679</v>
+        <v>0.9198110756382681</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9145504257596782</v>
+        <v>0.9143332694653412</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9251396309035064</v>
+        <v>0.9247851687154593</v>
       </c>
     </row>
     <row r="18">
